--- a/utilities/Excel_Sheets/Products/CYB_LAMMICO.xlsx
+++ b/utilities/Excel_Sheets/Products/CYB_LAMMICO.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Cases" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="37">
   <si>
     <t>Test_Scenario</t>
   </si>
@@ -141,18 +141,12 @@
   </si>
   <si>
     <t>select_MEDEFENSE_Plus_with_100K_Medical_Board_Proceedings_Sublimit_and_Cyber_Liability_No_PCI_1MM_1M_limit_0_2pt5K_Deduct</t>
-  </si>
-  <si>
-    <t>select_Cyber_Liability_Only_1MM_1MM_limit_0_2pt5K_Deduct</t>
-  </si>
-  <si>
-    <t>Not Working</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -547,13 +541,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -575,7 +569,7 @@
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -616,7 +610,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -657,48 +651,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="5">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="K3" s="5">
-        <v>5</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -733,13 +687,13 @@
         <v>5</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M4" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -774,54 +728,54 @@
         <v>5</v>
       </c>
       <c r="L5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="K6" s="5">
+        <v>5</v>
+      </c>
+      <c r="L6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="8">
-        <v>2</v>
-      </c>
-      <c r="D6" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="K6" s="8">
-        <v>5</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>20</v>
       </c>
@@ -856,13 +810,13 @@
         <v>5</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M7" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
@@ -897,13 +851,13 @@
         <v>5</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M8" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>20</v>
       </c>
@@ -938,13 +892,13 @@
         <v>5</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M9" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -979,65 +933,62 @@
         <v>5</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M10" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="5">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="K13" s="5">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="8">
+        <v>2</v>
+      </c>
+      <c r="D11" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="K11" s="8">
         <v>5</v>
       </c>
-      <c r="L13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M13" s="5">
-        <v>0</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>38</v>
+      <c r="L11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1"/>
+  <autoFilter ref="A1:M1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -3566,7 +3517,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M61"/>
+  <autoFilter ref="A1:M61" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/utilities/Excel_Sheets/Products/CYB_LAMMICO.xlsx
+++ b/utilities/Excel_Sheets/Products/CYB_LAMMICO.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Full_Regression!$A$1:$M$61</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_Cases!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_Cases!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="37">
   <si>
     <t>Test_Scenario</t>
   </si>
@@ -542,12 +542,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -555,21 +555,18 @@
     <col min="1" max="1" width="33.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="32" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="141" style="1" customWidth="1"/>
-    <col min="13" max="13" width="24.140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="20.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="141" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -580,37 +577,28 @@
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -620,39 +608,30 @@
       <c r="C2" s="5">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>6</v>
+      <c r="E2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="H2" s="5">
+        <v>5</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="K2" s="5">
-        <v>5</v>
-      </c>
-      <c r="L2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -662,38 +641,29 @@
       <c r="C4" s="5">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>6</v>
+      <c r="E4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="H4" s="5">
+        <v>5</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="K4" s="5">
-        <v>5</v>
-      </c>
-      <c r="L4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -703,38 +673,29 @@
       <c r="C5" s="5">
         <v>1</v>
       </c>
-      <c r="D5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>6</v>
+      <c r="E5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="H5" s="5">
+        <v>5</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="K5" s="5">
-        <v>5</v>
-      </c>
-      <c r="L5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -744,38 +705,29 @@
       <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="D6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>6</v>
+      <c r="E6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="6">
+        <v>10000001</v>
+      </c>
+      <c r="H6" s="5">
+        <v>5</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="6">
-        <v>10000001</v>
-      </c>
-      <c r="K6" s="5">
-        <v>5</v>
-      </c>
-      <c r="L6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>20</v>
       </c>
@@ -785,38 +737,29 @@
       <c r="C7" s="8">
         <v>2</v>
       </c>
-      <c r="D7" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>6</v>
+      <c r="E7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="H7" s="8">
+        <v>5</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="K7" s="8">
-        <v>5</v>
-      </c>
-      <c r="L7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
@@ -826,38 +769,29 @@
       <c r="C8" s="8">
         <v>2</v>
       </c>
-      <c r="D8" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>6</v>
+      <c r="E8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="H8" s="8">
+        <v>5</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="K8" s="8">
-        <v>5</v>
-      </c>
-      <c r="L8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="M8" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>20</v>
       </c>
@@ -867,38 +801,29 @@
       <c r="C9" s="8">
         <v>2</v>
       </c>
-      <c r="D9" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>6</v>
+      <c r="E9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="H9" s="8">
+        <v>5</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="K9" s="8">
-        <v>5</v>
-      </c>
-      <c r="L9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -908,38 +833,29 @@
       <c r="C10" s="8">
         <v>2</v>
       </c>
-      <c r="D10" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="D10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>6</v>
+      <c r="E10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="H10" s="8">
+        <v>5</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="K10" s="8">
-        <v>5</v>
-      </c>
-      <c r="L10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>20</v>
       </c>
@@ -949,39 +865,30 @@
       <c r="C11" s="8">
         <v>2</v>
       </c>
-      <c r="D11" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="D11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>6</v>
+      <c r="E11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="9">
+        <v>10000001</v>
+      </c>
+      <c r="H11" s="8">
+        <v>5</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="9">
-        <v>10000001</v>
-      </c>
-      <c r="K11" s="8">
-        <v>5</v>
-      </c>
-      <c r="L11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="M11" s="8">
+      <c r="J11" s="8">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
